--- a/artfynd/A 29945-2022.xlsx
+++ b/artfynd/A 29945-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1032,6 +1032,119 @@
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112328247</v>
+      </c>
+      <c r="B5" t="n">
+        <v>77797</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1249</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Norsk näverlav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Platismatia norvegica</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Lynge) W.L.Culb. &amp; C.F.Culb.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Framnäs, Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>457353</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7151591</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Strömsund</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Frostviken</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>12:59</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>12:59</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Henrik Tykosson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 29945-2022.xlsx
+++ b/artfynd/A 29945-2022.xlsx
@@ -1037,7 +1037,7 @@
         <v>112328247</v>
       </c>
       <c r="B5" t="n">
-        <v>77797</v>
+        <v>77811</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
